--- a/documents/AES comments bank.xlsx
+++ b/documents/AES comments bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerrison\Documents\GitHub\AutomatedEssayEvaluation\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0698628D-4D6E-4292-8B14-DF728D845116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7194C2DD-76ED-495B-903F-F303C506D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="0" windowWidth="26535" windowHeight="14895" xr2:uid="{7440EBEF-3737-426C-BCBD-8D732CF2F3DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7440EBEF-3737-426C-BCBD-8D732CF2F3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,26 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="130">
   <si>
     <t>superscript is used for footnote. it is used when we need to explain some of the details in your reference, but will interrupt the flow of your essay. use endnote citation instead if you just need to cite where your sources are from.</t>
   </si>
   <si>
-    <t>bibliography,superscript</t>
-  </si>
-  <si>
     <t>numbering in bibliography is missing/incorrect</t>
   </si>
   <si>
-    <t>bibliography,numbering</t>
-  </si>
-  <si>
     <t>end double quote should be outside the punctuation.</t>
   </si>
   <si>
-    <t>end-quote pos,quality of writing</t>
-  </si>
-  <si>
     <t>fontface is different in bilbiography</t>
   </si>
   <si>
@@ -64,21 +55,12 @@
     <t>line spaces is not as specified (1.15)</t>
   </si>
   <si>
-    <t>effort,line space</t>
-  </si>
-  <si>
     <t>indentations are not consistent across paragraphs.</t>
   </si>
   <si>
-    <t>effort,indentation</t>
-  </si>
-  <si>
     <t>in text reference number should be inside the punctuation. e.g. Some citation [1].</t>
   </si>
   <si>
-    <t>bibliography,in-text ref pos</t>
-  </si>
-  <si>
     <t>some grammar errors</t>
   </si>
   <si>
@@ -88,9 +70,6 @@
     <t>where is your other example of a company pushing the boundaries of privacy issues; apologizing, and then pushing again once the scadal dies down?</t>
   </si>
   <si>
-    <t>content,hw2</t>
-  </si>
-  <si>
     <t>paragraph spacing is uneven</t>
   </si>
   <si>
@@ -115,9 +94,6 @@
     <t>endnote citation does not follow the IEEE style citation</t>
   </si>
   <si>
-    <t>bibliography,style</t>
-  </si>
-  <si>
     <t>too many uses of informal languages.</t>
   </si>
   <si>
@@ -127,9 +103,6 @@
     <t>hanging indentation is missing/incorrect</t>
   </si>
   <si>
-    <t>bibliography,indentation</t>
-  </si>
-  <si>
     <t>maybe include one source for the case about Facebook mentioned in you essay.</t>
   </si>
   <si>
@@ -148,15 +121,9 @@
     <t>title page is missing</t>
   </si>
   <si>
-    <t>effort,missing,title page</t>
-  </si>
-  <si>
     <t>paragraphs are not left aligned</t>
   </si>
   <si>
-    <t>alignment,effort</t>
-  </si>
-  <si>
     <t>bibliography should be on a separate page</t>
   </si>
   <si>
@@ -172,9 +139,6 @@
     <t>bibliography page should have a title</t>
   </si>
   <si>
-    <t>bibliography,effort</t>
-  </si>
-  <si>
     <t>pay attention to proper punctuation. You have some sentences that needs to be broken down to several ones to make it grammatically correct.</t>
   </si>
   <si>
@@ -187,18 +151,12 @@
     <t>title page is not as the templates provided on blackboard</t>
   </si>
   <si>
-    <t>effort,title page</t>
-  </si>
-  <si>
     <t>conclusion is missing</t>
   </si>
   <si>
     <t>(bibliography) author format is not correct (first name initial. lastname)</t>
   </si>
   <si>
-    <t>author,bibliography</t>
-  </si>
-  <si>
     <t>does not use usual document format</t>
   </si>
   <si>
@@ -208,9 +166,6 @@
     <t>use header for your number page and your name so you don't need to manage them manually</t>
   </si>
   <si>
-    <t>effort,page number</t>
-  </si>
-  <si>
     <t>If you are using exact same text from a source, you need to put them in double quotes to indicate that those are not your ideas.</t>
   </si>
   <si>
@@ -235,81 +190,45 @@
     <t>font face in the body is not Times New Romans</t>
   </si>
   <si>
-    <t>effort,font</t>
-  </si>
-  <si>
     <t>word count does not meet does not meet the requirement</t>
   </si>
   <si>
-    <t>effort,word count</t>
-  </si>
-  <si>
     <t>Where is your discussion about positive right/ negative right?</t>
   </si>
   <si>
-    <t>content,hw3</t>
-  </si>
-  <si>
     <t>Where is your discussion about the other example of non-cyber legal business that could involves illegal activities?</t>
   </si>
   <si>
     <t>you bibliography is missing the title, either "Bibliography", or "Reference"</t>
   </si>
   <si>
-    <t>bibliography,title</t>
-  </si>
-  <si>
     <t>In this kind of essay you should pick a position.</t>
   </si>
   <si>
-    <t>content,hw3,side</t>
-  </si>
-  <si>
     <t>You should include when the online bibliography is accessed. e.g. [Accessed: ......]</t>
   </si>
   <si>
-    <t>access,bibliography</t>
-  </si>
-  <si>
     <t>you should indicate the source is online (add [Online] after he publish date)</t>
   </si>
   <si>
-    <t>bibliography,online</t>
-  </si>
-  <si>
     <t>Copyright is usually considered as a negative right.</t>
   </si>
   <si>
-    <t>content,hw3,negative right</t>
-  </si>
-  <si>
     <t>some hanging indentation in endnote citation is not correct</t>
   </si>
   <si>
-    <t>bibliography,indentation,minor</t>
-  </si>
-  <si>
     <t>some in-text citations are too short to use block citation.</t>
   </si>
   <si>
-    <t>block citing,quality of writing</t>
-  </si>
-  <si>
     <t>your essay doesn't feel like finished. Maybe a conclusion paragraph is missing?</t>
   </si>
   <si>
     <t>margin is not 1 inch</t>
   </si>
   <si>
-    <t>effort,margin</t>
-  </si>
-  <si>
     <t>I think that the name on your title page is missing</t>
   </si>
   <si>
-    <t>effort,name</t>
-  </si>
-  <si>
     <t>word count exceed the requirement by too much. If this situation happens, it indicates the need to leave out some content or to be more concise.</t>
   </si>
   <si>
@@ -319,69 +238,39 @@
     <t>You can't just put url on bibliography.</t>
   </si>
   <si>
-    <t>bibliography,pure url</t>
-  </si>
-  <si>
     <t>You should use left alignment for bibliography</t>
   </si>
   <si>
-    <t>alignment,bibliography</t>
-  </si>
-  <si>
     <t>you don't need to use blank paragraphs to separate the paragraphs</t>
   </si>
   <si>
-    <t>effort,spacing</t>
-  </si>
-  <si>
     <t>paragraph indentation is not proper. you should just indent 1/2 inch</t>
   </si>
   <si>
     <t>bibliography title's font is not Times News Roman</t>
   </si>
   <si>
-    <t>bibliography,font,title</t>
-  </si>
-  <si>
     <t>you have some uncommon line break in the middle of sentences</t>
   </si>
   <si>
-    <t>line break,quality of writing</t>
-  </si>
-  <si>
     <t>You bibliography is not complete. You should specify where you get those sources</t>
   </si>
   <si>
-    <t>bibliography,incomplete</t>
-  </si>
-  <si>
     <t>misspelled the "http"</t>
   </si>
   <si>
-    <t>bibliography,special</t>
-  </si>
-  <si>
     <t>Why do you need Note?</t>
   </si>
   <si>
     <t>Where are your additional research materials?</t>
   </si>
   <si>
-    <t>lack of research,research</t>
-  </si>
-  <si>
     <t>You didn't include your references.</t>
   </si>
   <si>
-    <t>bibliography,missing</t>
-  </si>
-  <si>
     <t>The discussion on ethical aspects can be discussed more.</t>
   </si>
   <si>
-    <t>communication,hw4</t>
-  </si>
-  <si>
     <t>Topic sentences can be more clear and specific.</t>
   </si>
   <si>
@@ -391,19 +280,10 @@
     <t>The last sentence of the first paragraph is usually your thesis statement, and it is where you state your opinion on the topic.</t>
   </si>
   <si>
-    <t>organization,thesis statement</t>
-  </si>
-  <si>
     <t>Where is the url for your sources?</t>
   </si>
   <si>
-    <t>bibliography,url</t>
-  </si>
-  <si>
     <t>In bibliography, please don't use hyperlink, put literal url.</t>
-  </si>
-  <si>
-    <t>bibliography,hyperlink,url</t>
   </si>
   <si>
     <t>some punctuation is missing</t>
@@ -420,6 +300,132 @@
   <si>
     <t>if you are citing a foreign source, use this format: 
 Initials of author. Surname, Title [Translation of book/article’s title]. City of Publication: Publisher, Year of publication.</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>superscript</t>
+  </si>
+  <si>
+    <t>numbering</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>end-quote pos</t>
+  </si>
+  <si>
+    <t>line space</t>
+  </si>
+  <si>
+    <t>title page</t>
+  </si>
+  <si>
+    <t>indentation</t>
+  </si>
+  <si>
+    <t>in-text ref pos</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>&lt;privacy&gt;</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>missing, title page</t>
+  </si>
+  <si>
+    <t>alignment</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>page number</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>word count</t>
+  </si>
+  <si>
+    <t>&lt;hw3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;hw3&gt;, side</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>&lt;hw3&gt;, negative right</t>
+  </si>
+  <si>
+    <t>significant level</t>
+  </si>
+  <si>
+    <t>block citing</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pure url</t>
+  </si>
+  <si>
+    <t>spacing</t>
+  </si>
+  <si>
+    <t>font, title</t>
+  </si>
+  <si>
+    <t>line break</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>lack of research</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>&lt;hackivism&gt;</t>
+  </si>
+  <si>
+    <t>thesis statement</t>
+  </si>
+  <si>
+    <t>hyperlink,url</t>
+  </si>
+  <si>
+    <t>missing title</t>
   </si>
 </sst>
 </file>
@@ -774,31 +780,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868F5C17-A638-4671-91E1-D73A4D49A94D}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="2" max="2" width="153.28515625" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -806,865 +820,1021 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +1842,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
